--- a/Data/LLM result/LLM_generate_strings/GPT4o/GPT4o with MutRex/output_C.xlsx
+++ b/Data/LLM result/LLM_generate_strings/GPT4o/GPT4o with MutRex/output_C.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>regex</t>
+          <t>Regex</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -463,8 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>positive example:[0110, 00110, 010, 1, 011110]  
-negative example:[110, 111011, 11110, 000, 10101]</t>
+          <t>positive example:[1, 011, 010110, 0110, 0010], negative example:[111111, 101010, 000, 1111]</t>
         </is>
       </c>
     </row>
@@ -481,8 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, b]
-negative example:[ab, ba, c, A, B]</t>
+          <t>positive example:[, a, aa, aaa, b], negative example:[ab, ba, bb, c]</t>
         </is>
       </c>
     </row>
@@ -499,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive example:[-1I],negative example:[I1-,1I-,I-1]</t>
+          <t>positive example:[], negative example:[]</t>
         </is>
       </c>
     </row>
@@ -516,8 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>positive example: [a, b, aba, baa, abba, aa, abab, baab]   
-negative example: [bba, aab, bab, aaa, baaab, bb]</t>
+          <t>positive example:[, abb, a, aba, bab, ababab, baab],negative example:[b, bb, abba, baba, bba]</t>
         </is>
       </c>
     </row>
@@ -534,7 +531,8 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>positive example: [011, 001, 00111, 0111, 0101], negative example: [0, 0110, 0010, 01111, 010]</t>
+          <t>positive example: [01, 0011, 011, 001, 0001, 0111]  
+negative example: [0, 1, 10, 110, 111, 101]</t>
         </is>
       </c>
     </row>
@@ -551,7 +549,8 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>positive example:[11, 010110, 001001100],negative example:[0, 10, 01, 1100, 1111]</t>
+          <t>positive example: [1011, 0111, 00010110]  
+negative example: [100, 0110, 1110]</t>
         </is>
       </c>
     </row>
@@ -568,7 +567,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>positive example: [1111, 1111111], negative example: [11, 11111, 111111]</t>
+          <t>positive example:[1111], negative example:[1, 111, 11111]</t>
         </is>
       </c>
     </row>
@@ -585,7 +584,8 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>positive example:[abab, aaab, aaaaab],negative example:[bbbb, bba, aa, bababab]</t>
+          <t>Positive example: [ab, aab, baab, aaab, aabb, abab, baaab, ababb]  
+Negative example: [bb, babbb, aaabb, bba, abba, aaaa, a]</t>
         </is>
       </c>
     </row>
@@ -602,8 +602,8 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>positive example: [baa, abbaaaabbb, aabbbbababba]
-negative example: [bab, bbbba, abbba, bbb, aaab, bbbabaa]</t>
+          <t>positive example: [babb, ababbb, aabbabba, aabbbb]
+negative example: [bba, aaabbb, babbabb]</t>
         </is>
       </c>
     </row>
@@ -620,7 +620,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>positive example:[ab, aab, aaab, aaaab],negative example:[b, ba, a, aabbb]</t>
+          <t>positive example:[ab, aab, aaab, aaaab], negative example:[b, ba, aba, aaba]</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,8 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>positive example: [baabaa, baba, baaa, baabaaa], negative example: [ba, bbb, aab, baa*]</t>
+          <t>positive example: [baaa, baaabaa, baabaaa, baaaabaa, baabaa]
+negative example: [b, a, bab, baa, aaaa]</t>
         </is>
       </c>
     </row>
@@ -654,7 +655,8 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive example:[baa, bba],negative example:[bBa, bca, bAa, baA, Baa, b0a]</t>
+          <t>positive example: [baa, bba]  
+negative example: [aba, bbb, aaa]</t>
         </is>
       </c>
     </row>
@@ -671,8 +673,8 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>positive example: [baa, baaab, aabbaa, bbaaab, aabaaab, baaabab]
-negative example: [abbaa, aabbaab, bb, baaa, ab, baabab]</t>
+          <t>positive example: [baab, babaaab, aabaaab, aaabab, baaabab, baaaab]
+negative example: [a, ba, aaa, bbb, aab, ab]</t>
         </is>
       </c>
     </row>
@@ -689,7 +691,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>positive example:[abb, abbb, abbbb, abbbbbb],negative example:[ab, aB, ABB, ab, abB]</t>
+          <t>positive example:[abb, abbb, abbbb, abbbbb, abbbbbb], negative example:[a, ab, b, bb, abbab]</t>
         </is>
       </c>
     </row>
@@ -706,8 +708,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>positive example:[ab, bbaaab, bbbaab]  
-negative example:[b, baa, abab]</t>
+          <t>positive example: [a, ab, bab, bbab, baab, bb, bbaaab], negative example: [b, abab, aa, bbbba]</t>
         </is>
       </c>
     </row>
@@ -724,7 +725,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>positive example: [00110101110], negative example: [00110101, 110101110, 10101110]</t>
+          <t>positive example: [00110101110], negative example: [001110, 10101001, 101110]</t>
         </is>
       </c>
     </row>
@@ -741,7 +742,9 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>positive example:[1I, 11I, 111I],negative example:[1, I, 1II]</t>
+          <t>Sure, let's generate some examples based on your request.
+Positive example: `["[]", "[][]", "[[]]", "[[[]]]"]`
+Negative example: `["[", "]", "[[", "]]", "[[]", "[[", "[]]"]`</t>
         </is>
       </c>
     </row>
@@ -758,7 +761,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[2, A, a]</t>
+          <t>positive example:[0, 1], negative example:[00, 11, 01, 10, a, b, 2]</t>
         </is>
       </c>
     </row>
@@ -775,8 +778,8 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>positive example:[bb, aabb, bbbb, ababbb, baabb, aaabbabbbb]  
-negative example:[abb, bB, aBbb, aAbb, bAbb, Aabb, Babb, Bbbb, Abb]</t>
+          <t>Positive example: [bbaabb, abbaabb, aabbba]
+Negative example: [abab, aaabab, ba]</t>
         </is>
       </c>
     </row>
@@ -793,8 +796,8 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>positive example:[aabb, aabbab, aabba, aabbabab, aabbb, aabbba]  
-negative example:[aabbc, aabb1, aabbbC, aabb#, aAbb, aaBb, aabbA, aabbB]</t>
+          <t>positive example: [aabb, aabbab, aabbaa, aabbabbba, aabba]
+negative example: [a, ab, aabba, aa, abb]</t>
         </is>
       </c>
     </row>
@@ -811,8 +814,8 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive example:[ab, aab, abbb, aabbb, b]  
-negative example:[abbbba, xyzb, bbba, Aaab, aAaab]</t>
+          <t>positive example:[abb, ab, b, aab, aabb, aabbb, aaab, aaabb, aaabbb]  
+negative example:[aaa, baaa, baba, aa, a, bb, bbb]</t>
         </is>
       </c>
     </row>
@@ -829,7 +832,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>positive example:[a, b],negative example:[B, A, c]</t>
+          <t>positive example: [a, b], negative example: [aa, bb, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -846,8 +849,8 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>positive example:[a, b]  
-negative example:[c, A, B, 0]</t>
+          <t>positive example: [a, b]  
+negative example: [ab, ba, aa]</t>
         </is>
       </c>
     </row>
@@ -864,8 +867,8 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[ab, bb, bbb, aab, aaab, aaaaab]  
-negative example:[b, a, aabb, a0b, acb, aa0b, baaab]  </t>
+          <t>positive example: [bbb, aab, ab, aaab, aaaaab]  
+negative example: [baa, bab, baab, aabaa, aba]</t>
         </is>
       </c>
     </row>
@@ -882,8 +885,8 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive example:[00, 0, , 11110, 111100, 1111, 11111110, 111111100, 11111111110]  
-negative example:[01, 10, 111, 110, 100, 1110, 010, 0001, 11111000]</t>
+          <t>positive example: [00, 0, , 11110, 111100, 1111, 1110, 000, 11110000, 1111100, 1111010000, 1111110]  
+negative example: [1, 111, 01, 1011, 11111, 121, 201]</t>
         </is>
       </c>
     </row>
@@ -900,8 +903,8 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>positive example:[010, 0011, 10010, 1100, 01001, 001, 10110, 110010]  
-negative example:[011, 000, 1111, 01, 10, 0001]</t>
+          <t>positive example:[0101, 100, 1100, 001, 011, 1010, 110, 0001, 1110]  
+negative example:[1, 0, 111, 000, 10, 01, 010, 101]</t>
         </is>
       </c>
     </row>
@@ -918,7 +921,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[2, a, A, 00]</t>
+          <t>positive example: [0, 1, ""], negative example: [00, 11, 01]</t>
         </is>
       </c>
     </row>
@@ -935,8 +938,8 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>positive example: [baab, babaaabb, baaab, baaabbbb, abbaaab]
-negative example: [ababab, baaa, abbaab, baabab, baacb]</t>
+          <t>positive example: [baab, babaaabb, baa, baaabb, abaab]
+negative example: [b, ab, aab, ba, baaa]</t>
         </is>
       </c>
     </row>
@@ -953,7 +956,8 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>positive example:[0, 1],negative example:[2, a, A, 00, 11, 01, 10, abc, 001]</t>
+          <t>positive example: [0, 1, 00, 01, 10, 11, 000, 001, 010, 011, 100, 101, 110, 111]  
+negative example: ['']</t>
         </is>
       </c>
     </row>
@@ -970,7 +974,8 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>positive example:[aaabbba, abbbba, aabbbba, aaabba, aaabbbba],negative example:[abbaa, abbba, aabbbbaa, aababaab, aaaabbb]</t>
+          <t>positive example: [aaabbba, abbaaa, abbbba, aaaabbba, aaabbaaa]  
+negative example: [abba, aabb, bbba, abaaaa, bbbba]</t>
         </is>
       </c>
     </row>
@@ -987,8 +992,8 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>positive example:[baba, abab, bababab, ababab, babababa]  
-negative example:[bb, baa, babb, bbb, aabba]</t>
+          <t>positive example: [babab, babababa, bababababab, abababababa, ababababababab]
+negative example: [bb, ba, abb, abab, aaa]</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1010,8 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>positive example:[10011100, 1101100, 101100, 1111000],negative example:[0110, 1010, 1110, 1101]</t>
+          <t>Positive example: [10011100, 10110, 110011100, 1011100, 1001110]  
+Negative example: [1010, 0110, 1110, 1011, 1100]</t>
         </is>
       </c>
     </row>
@@ -1022,8 +1028,8 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>positive example:[baaba, bbbbbba, baababba, baaaba, babba, babababba]
-negative example:[bbbbAbbbba, bbba, bBa, Bba, bbBba, bbA, bAba, bBbba, bbbAbbba, bab, aba]</t>
+          <t>positive example: [baaba, bbbbbba, bababa, baaababa, baba]
+negative example: [bbba, bab, bba, aa, ab]</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1046,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive example:[aa, bbaaa, bbaaaa],negative example:[bbaAa, bbaaA, bbaa, bbaaa, bBaaa, A, aA, Aa]</t>
+          <t>positive example:[aa, |bbaaa, |bbaaaa, |bbaaaaa, |bbaaaaaa], negative example:[a, aaa, bba, aaab]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1063,8 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>positive example:[ba, bba, bbba],negative example:[a, bAa, Ab, Bab]</t>
+          <t>positive example: [ba, bba, bbba]  
+negative example: [a, aa, aba]</t>
         </is>
       </c>
     </row>
@@ -1074,8 +1081,8 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Positive example: [aabaab, babaa, babab, aabab, aabaaa]
-Negative example: [aAbaba, aaba0, aaBa, 0aba, Aaba, aa, Baba, aabaB, caba, aabac, aabaA, aabAaba, ba, abab]</t>
+          <t>positive example: [aabaab, aabaaa, babab, bababa, aababb]  
+negative example: [aa, aba, abbaa, aaaa, bba]</t>
         </is>
       </c>
     </row>
@@ -1092,8 +1099,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>positive example:[, bba, bbba, aba, babba]  
-negative example:[b, bbA, baAb, babAb, Abb]</t>
+          <t>positive example:[, bba, bbbb, abba, aabbaa, aabaa], negative example:[b, ba, abb]</t>
         </is>
       </c>
     </row>
@@ -1110,8 +1116,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>positive example:[101001, 01110, 010011, 110010, 111111, 010101]  
-negative example:[0A000, 00002, 20000, 00020, 0000200, 0000, 00a00, A0000, 00a0000, 000a0, 000A0, a0000, 0000a, 0000A, 02000]</t>
+          <t>positive example:[01011, 11000, 00011, 11111, 10100],negative example:[100, 111, 000, 001]</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1133,8 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>positive example: [b, bab, babb, babbab, babbabbab, babbabba], negative example: [ba, babba, bb, bba, ab, abb, baba]</t>
+          <t>positive example: [b, bab, babab, babba, babbab, babbababa, babbababbab]  
+negative example: [a, ba, ab, bb, baa, abab, babbb, abbababa]</t>
         </is>
       </c>
     </row>
@@ -1145,7 +1151,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive example: [010, 001010, 1110, 011010, 00011010], negative example: [10, 001, 101, 0, 1101]</t>
+          <t>positive example:[010101, 0001101010, 101010, 01101010, 00101010], negative example:[0, 10, 1110, 000, 010]</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1168,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>positive example:[100011, 1001100110, 1110001000110],negative example:[1000, 11000110, 1001011]</t>
+          <t>positive example: [1000111, 10110110, 11000110], negative example: [1101100, 001011, 111010]</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1185,8 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive example:[aabbaa, aabba, abbaa, abbbaa, abbaaa],negative example:[aabbaab, aaba, aabbaaa, abbbb, ababaa]</t>
+          <t>positive example:[aabbaa, abbbbaaa, aaabba, abbbaa]
+negative example:[abaab, bababa, aaabbb]</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1203,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>positive example:[baab, abaab, abbab, abab, abbaab, abbaaab, babaab, aabbaaab, aaababaab],negative example:[baa0baab, baaB, baacbaab, baaBaabaab, Abaab, baabAabaab, baabaAbaab, aaabaa, aab]</t>
+          <t>positive example: [baab, abaab, abbaaab, baaab, ababaabb], negative example: [b, abb, bb, aa, a]</t>
         </is>
       </c>
     </row>
@@ -1213,7 +1220,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>positive example:[aaabbbabab, aaaabbaa, aaabbaba, aaaabbbbbb, aaaabbbbb],negative example:[aaaBbb, aaaabbc, Aaabb, aabbA, aaAbbb, aabbbB, aaabbbb1, aaa0bbb, bbaaAaa, aabbAbb]</t>
+          <t>positive example:[aaabbb, aaaabbb, aaabbbaa, aaabbba, aaaabbaa, aaaabbbb], negative example:[aabb, ab, aaab, aabaa, bb]</t>
         </is>
       </c>
     </row>
@@ -1230,8 +1237,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>positive example:[a, baaa]
-negative example:[bAaa, b, baaA, baAa, A, 0, Baaa, aa]</t>
+          <t>positive example:[a, baaa], negative example:[b, aa, baa, aaa]</t>
         </is>
       </c>
     </row>
@@ -1248,8 +1254,8 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, b]  
-negative example:[c, B, A, ab, ba]</t>
+          <t>positive example:[, a, aa, aaa, b]
+negative example:[ab, ba, bb, aab, aba]</t>
         </is>
       </c>
     </row>
@@ -1266,8 +1272,8 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>positive example:[aaa, ab]  
-negative example:[aB, Ab, a, A, 0, aAa, aaA, Aaa]</t>
+          <t>positive example: [aaa, ab]  
+negative example: [a, aa, abab, aaaa]</t>
         </is>
       </c>
     </row>
@@ -1284,8 +1290,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive example:[, a, aa, aaa, aaaa]
-negative example:[A, aaA, a*, aA, ba]</t>
+          <t>positive example:[, a, aa, aaa],negative example:[b, ab, ba]</t>
         </is>
       </c>
     </row>
@@ -1302,8 +1307,8 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>positive example:[01, 101, 00101, 01001, 10101]  
-negative example:[10, 01100, 11010, 0011, 001110]</t>
+          <t>positive example: [01, 001, 0101, 1001, 010101]
+negative example: [0, 1, 0010, 100, 1011]</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1325,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>positive example:[100, 001011, 1, 01100, 110, 11110],negative example:[011, 1a, 1A11, 1011, 1101, 0111]</t>
+          <t>positive example:[101, 001, 1100, 111, 10011], negative example:[010, 000, 0111, 1010, 110]</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1342,8 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>positive example:[a, bb, abba, bbabaa, aabb, bbabba, bba, aa], negative example:[b, A, bbb, bab, bbaB, Bb, aabbbbaa]</t>
+          <t>positive example: [a, bb, abb, bba, aa, bbbb, abba, abbb, bbaaa]
+negative example: [b, ab, ba, bab, bbaa, aaaa, bbbbb, aba, aabb]</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1360,8 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>positive example: [0, 01], negative example: [1, 00, 11]</t>
+          <t>positive example:[0, 01]  
+negative example:[1, 11, 10]</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1378,8 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>positive example:[b, aab, aaaab, aaaaaab],negative example:[ab, bb, aaabb, Aab]</t>
+          <t>positive example: [b, aab, aaaab, aaaaaaab, aaab]  
+negative example: [a, aa, ab, ba, aabaa, aabaaa]</t>
         </is>
       </c>
     </row>
@@ -1388,8 +1396,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>positive example: [0, 1]  
-negative example: [2, a, A]</t>
+          <t>positive example:[0,1,0],negative example:[]</t>
         </is>
       </c>
     </row>
@@ -1406,8 +1413,8 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>positive example:[aabbb, ababb, babbbb, baaabbb, abababbbb]  
-negative example:[abb, aab, abbbb, bab, aaabbbb, bbabb, babbbbbb]</t>
+          <t>positive example: [aabbbb, abbbbbb, bababbb, bbbbbbb]
+negative example: [bbb, aabb, abb, aabab]</t>
         </is>
       </c>
     </row>
@@ -1424,8 +1431,8 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>positive example:[abb, aabab, aabbb, aabbab, aababab, abbab]  
-negative example:[aabc, aaab, aabB, aBb, aabAb, Aab, acb, aabababB, a0b, aab1]</t>
+          <t>positive example: [aab, abab, abba, aabbb, abbab]
+negative example: [aaa, baa, ab, a, bba]</t>
         </is>
       </c>
     </row>
@@ -1442,7 +1449,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>positive example:[a, aaa, aaaaa],negative example:[aa, aaaaaa, A]</t>
+          <t>positive example:[a, aaa, aaaaa, aaaaaaa],negative example:[aa, aaaa, aaaaaa, aaaaaaaa]</t>
         </is>
       </c>
     </row>
@@ -1459,8 +1466,8 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>positive example:[aab, abaa, abb, aabab, abba]
-negative example:[aabc, aabB, aabA, aBb, aaB, aAb, a0bb, Aab, acb, aab0, bab, baab]</t>
+          <t>positive example: [aab, abb, aabab, aabba, abba]
+negative example: [aba, baa, bab, bbb, aa]</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1484,9 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive example:[aI, aIaa, aIaIaI],negative example:[A, aA, aai]</t>
+          <t>To generate positive and negative examples for the regular expression `a`, here are some suitable examples:
+Positive examples: [`a`, `aaa`, `aaaa`, `aaaaaaaa`, `aaaaaa`]
+Negative examples: [`b`, `aaab`, `baa`, `c`, `d`]</t>
         </is>
       </c>
     </row>
@@ -1494,8 +1503,8 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>positive example:[abab, abbb, babb]
-negative example:[aaaa, abaa, bbba, aaab]</t>
+          <t>positive example: [abab, babb, abba]  
+negative example: [aaaa, baaa, aabb]</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1521,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>positive example:[0],negative example:[I,01,10]</t>
+          <t>I'm sorry, but I need the regular expression itself to generate examples. Please provide the regular expression you are referring to.</t>
         </is>
       </c>
     </row>
@@ -1529,7 +1538,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>positive example:[1I, 11I, 111I],negative example:[I1, I11, 111]</t>
+          <t>Please provide the regular expression you would like examples for, and I will generate positive and negative examples accordingly.</t>
         </is>
       </c>
     </row>
@@ -1546,7 +1555,8 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>positive example:[aabab, aabb, aabababb, aabaaa, aabaa, aabbb],negative example:[abb, aaaa, aacb, aaba, aaxa, ababa, axb, abba]</t>
+          <t>positive example:[aababab, aab, aabaaa, aabab, aaba, aabba, aabbaba, aabaaab]
+negative example:[aa, ab, aba, abb, aaaa, abab, baa, bbab, bab]</t>
         </is>
       </c>
     </row>
@@ -1563,8 +1573,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>positive example:[1, 0110, 01010110101, 10011001, 111001101101, 00110101]  
-negative example:[10, 1011, 0011, 01100, 0B, 10A]</t>
+          <t>positive example:[1, 00101, 0110001, 110110, 010101110], negative example:[101, 1100, 010, 0001, 110101]</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1590,8 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>positive example: [0101, 1010101, 000101000, 1101011, 01010101], negative example: [1001, 01010, 11011, 001001, 101101]</t>
+          <t>positive example:[0101, 1010101, 000101000, 111010111, 0000101]
+negative example:[01, 1011, 001110, 1010, 110011]</t>
         </is>
       </c>
     </row>
@@ -1598,7 +1608,8 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>positive example:[ba, aba, aaba, aaaba],negative example:[a*ba, aab, bAb, Baa, Ab]</t>
+          <t>positive example:[ba, aaba, aba, aaaba, aaaaaaba]  
+negative example:[bba, abba, abb, baba, baa]</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1626,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>positive example: [bb, ab, aab, aaab, abaab, baaab], negative example: [ab, abab, ba, aabb, bba, abba]</t>
+          <t>positive example:[bb, ab, aabb, abb, baab, aabaabb], negative example:[b, aab, bab, aaabbb, aba]</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1643,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>positive example:[1, I, 1I],negative example:[a, b, c]</t>
+          <t>Please provide the regular expression you'd like me to generate examples for.</t>
         </is>
       </c>
     </row>
@@ -1649,7 +1660,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>positive example:[011, 001011, 10011, 1011, 0001011],negative example:[00, 1110, 11011, 0111, 101110]</t>
+          <t>positive example:[01011, 001011, 0001011],negative example:[0101, 10011, 0110]</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1677,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>positive example: [1I, -1I], negative example: [0I, -2I, II]</t>
+          <t>I'm sorry, but there's no specific regular expression provided in your request. If you share the regular expression, I can generate positive and negative examples based on it.</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1694,8 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>positive example:[001, 10101, 110],negative example:[0, 00, 101, 111, 100]</t>
+          <t>Positive example: [001, 10101, 110]  
+Negative example: [011, 111, 101]</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1712,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>positive example:[11010110],negative example:[11010111, 1101010, 110101101, 1010110, 011010110]</t>
+          <t>positive example:[11010110], negative example:[1101011, 011010110, 110101101, 1010110, 110101, 11011010]</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1729,8 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>positive example:[11, 001001, 101, 1001, 000101],negative example:[10101, 0101, 111, 00011, 100011]</t>
+          <t>positive example: [101, 1001, 0010011, 000110001]
+negative example: [000, 111, 1010101, 11011]</t>
         </is>
       </c>
     </row>
@@ -1734,7 +1747,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>positive example:[ba, baa, baaa, baaaa],negative example:[b, bA, Ba, baaA, a, baaab]</t>
+          <t>positive example:[ba, baa, baaa, baaaa], negative example:[b, bb, a, ab]</t>
         </is>
       </c>
     </row>
@@ -1751,8 +1764,8 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[ab, aab, aaab]  
-negative example:[aabb, b, bb]  </t>
+          <t>positive example: [aab, aaab, ab]  
+negative example: [abb, ba, aa]</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1782,8 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>positive example:[abba],negative example:[aBba, abBa, abbA, Abba]</t>
+          <t>Positive example: [abba]  
+Negative example: [abab, aabb, baab, abbb]</t>
         </is>
       </c>
     </row>
@@ -1786,8 +1800,8 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>positive example:[010101, 1101010, 0010101, 101011, 000010100]  
-negative example:[00101, 0101011, 11011, 210101, 010102, 0110101]</t>
+          <t>positive example: [01011, 0101010, 1101011, 00101010, 1010101, 0001010, 11101010]  
+negative example: [0101, 1001, 1110, 0101101, 10101, 011, 0000]</t>
         </is>
       </c>
     </row>
@@ -1804,7 +1818,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>positive example:[bb, bbbb, bbbbbb, bbbbbbbb, bbbbbbbbbb],negative example:[b, bB, Bb, bbbbB, bbBb]</t>
+          <t>positive example:[bb, bbbb, bbbbbb],negative example:[b, bbb, bbbbb]</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1835,8 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>positive example:[00, 11, , 110, 1100],negative example:[10, 111, 001, 01]</t>
+          <t>positive example: [00, 11, , 110, 1100, 0, 10, 1110]  
+negative example: [1, 01, 111, 101, 100]</t>
         </is>
       </c>
     </row>
@@ -1838,7 +1853,8 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>positive example:[ab, aab, aaab, aaaab],negative example:[b, ba, aabb, aabbb]</t>
+          <t>positive example: [aaab, ab, aab, aaaab, aaaaaab]
+negative example: [b, a, aa, ba, bb]</t>
         </is>
       </c>
     </row>
@@ -1855,8 +1871,8 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">positive example:[aaa, aabaaa, aabaaabaa, aaaaa, aaababaa, aabaaabaaa]  
-negative example:[abaaa, baa, abababaa, aaabbaa, aabaabaa, bbaa]  </t>
+          <t>positive example: [aa, aabaaababaabaaa, aababaaa, aaa, aaabaa, aaaaa]  
+negative example: [a, ab, baa, abab, aaaab, baab]</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1889,8 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>positive example:[baa, baab, babaa, babababbabaa, baaabab, babaaababb, babaaabab],negative example:[bab, baa0, baa1b, baaBbAB, bacac, bbabaa, baabAb, baaaBabb]</t>
+          <t>Positive examples: [baabb, abaab, abaabab]
+Negative examples: [bbaa, aaba, abb]</t>
         </is>
       </c>
     </row>
@@ -1890,7 +1907,8 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>positive example:[10, 0101, 1100, 0011, 01],negative example:[001, 111, 000, 101, 110]</t>
+          <t>positive example: [10, 0101, 1100, 0011, 01, 100, 001, 1110, 011, 1100]
+negative example: [1, 11, 00, 0, 111, 010, 101, 000, 0110, 0010]</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1925,8 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>positive example:[ba, aabbbbba, aba, a, baa, bba], negative example:[bBba, bbBa, bA, bbbAbba, Ba, bbAba, Aba, b, ab, bbba]</t>
+          <t>positive example: [ba, aabbbbba, aba, aabab, ababa]
+negative example: [ab, aa, bb, baa, aaa]</t>
         </is>
       </c>
     </row>
@@ -1924,8 +1943,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>positive example:[0, 00, 00000, 000000000000]
-negative example:[1, 01, ABC, 0a]</t>
+          <t>positive example:[0, 00, 000], negative example:[1, 01, 0001]</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1960,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>positive example:[a, abaa, aabba],negative example:[ba, Baa, aaB].</t>
+          <t>positive example:[a, bba, aba, aa, ba], negative example:[bb, ab, b]</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1977,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>positive example:[01, 010, 011, 0110],negative example:[0, 1, 111, 001, 0101]</t>
+          <t>positive example:[011, 0110, 0111, 01, 010, 0101],negative example:[11, 00, 10, 001, 100, 110]</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1994,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>positive example:[01011, 1101100, 1110001],negative example:[101, 1111, 01010, 110110, 00, 11111, 111011]</t>
+          <t>positive example:[01010, 1010111, 1100110],negative example:[001, 0000, 111]</t>
         </is>
       </c>
     </row>
@@ -1993,8 +2011,8 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>positive example:[, 11111111, 0110101, 101, 01010101, 00100100]  
-negative example:[111111, 1, 0111, 000000, 110101, 10101010]</t>
+          <t>positive example:[, 10101, 0110101010],
+negative example:[1111, 1110, 0001110]</t>
         </is>
       </c>
     </row>
@@ -2011,8 +2029,8 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>positive example:[1, 01101110, 010110110110110, 10011001110110],  
-negative example:[10, 101, 0110, 001001, 110101]</t>
+          <t>positive example: [0, 10011010, 01010001110, 1010, 001110, 011010001]
+negative example: [00, 111, 100, 010011, 001001]</t>
         </is>
       </c>
     </row>
@@ -2029,8 +2047,8 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>positive example:[abb, bbb, abbb, aabbb, bbbaabbb, aabbbbbbb]  
-negative example:[ab, ba, aaabbbb, bbAb, bba, babbb, Ab, abbbb]</t>
+          <t>positive example: [aabbbbbb, bb, abb, abbaabb, aaabbabbbb, abbbbb]
+negative example: [bbbbb, ab, aaa, bba, abbbbbbb]</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2065,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>positive example:[abb, abbb, ab],negative example:[a, b, abbab, abb*]</t>
+          <t>positive example:[ab, abb, abbb, abbbb],negative example:[a, b, aa, bb, ba, abba]</t>
         </is>
       </c>
     </row>
@@ -2064,7 +2082,8 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>positive example: [ab, baabb, aab, abaabab], negative example: [bb, abba, baa, babb, aabb]</t>
+          <t>positive example:[ab, aba, aabab, bbab, abbbb]  
+negative example:[b, bbb, aab, bab, baab]</t>
         </is>
       </c>
     </row>
@@ -2081,8 +2100,8 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>positive example: [baa, aabaabaa, aabaaabaa, baaabaa, abaa, a, baaabaaa, aaabaa]
-negative example: [b, ab, ba, abab, bbaa, aab, baab, baaab]</t>
+          <t>Positive example: [ '', 'baaabaaa', 'baa', 'aaaa', 'baabaa', 'baabaaabaa', 'a', 'baaa' ]
+Negative example: [ 'b', 'abab', 'aaaaabaaaa', 'baaabaa', 'baba', 'aabaa', 'bb', 'ba' ]</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2118,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>positive example: [a, aa, aaa, ba, bba, bbba], negative example: [c, B, A, aba, bb, aab]</t>
+          <t>positive example:[a, aa, aaa, b, bb, bba, bbaa], negative example:[ba, ab, aba, bbab]</t>
         </is>
       </c>
     </row>
@@ -2116,8 +2135,8 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>positive example: [11, 10011, 10101, 0010110, 11100111]
-negative example: [110110, 101110, 010, 0000, 111111]</t>
+          <t>positive example: [11, 1110101, 1001101, 01010101, 00110101]
+negative example: [110110101, 100111, 0101011, 111, 000111]</t>
         </is>
       </c>
     </row>
